--- a/html/teste4.xlsx
+++ b/html/teste4.xlsx
@@ -135,13 +135,15 @@
   </sheetPr>
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D119" activeCellId="0" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,10 +1122,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1162,15 +1164,15 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-611.99</v>
+        <v>-13235.15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>42492</v>
+        <v>42493</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-12235.15</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1180,7 @@
         <v>42493</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-56</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,23 +1188,23 @@
         <v>42493</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-43</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>42493</v>
+        <v>42494</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-8</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-40</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1212,7 @@
         <v>42495</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-375</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,15 +1220,15 @@
         <v>42495</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-220</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-16</v>
+        <v>-17424</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1236,7 @@
         <v>42496</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-17424</v>
+        <v>-2939.15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1244,7 @@
         <v>42496</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-2939.15</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1252,7 @@
         <v>42496</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-3.5</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,15 +1260,15 @@
         <v>42496</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-24.5</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>42496</v>
+        <v>42499</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-24</v>
+        <v>-1687</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +1276,7 @@
         <v>42499</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-1687</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,15 +1284,15 @@
         <v>42499</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-143</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-44</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1300,7 @@
         <v>42500</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-2000</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1308,7 @@
         <v>42500</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-84</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1316,7 @@
         <v>42500</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-38</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1324,7 @@
         <v>42500</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-119</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1332,7 @@
         <v>42500</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-220</v>
+        <v>-325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1340,7 @@
         <v>42500</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-325</v>
+        <v>-754.12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,23 +1348,23 @@
         <v>42500</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-754.12</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-24</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>42501</v>
+        <v>42502</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-36</v>
+        <v>-466.56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1372,7 @@
         <v>42502</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-466.56</v>
+        <v>-1353.1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1380,7 @@
         <v>42502</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-1353.1</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1388,7 @@
         <v>42502</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-1.75</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,15 +1396,15 @@
         <v>42502</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-40</v>
+        <v>-253.3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-253.3</v>
+        <v>-91.33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1412,7 @@
         <v>42503</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-91.33</v>
+        <v>-14.89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1420,7 @@
         <v>42503</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-14.89</v>
+        <v>-513.6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1428,7 @@
         <v>42503</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-513.6</v>
+        <v>-1456.67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1436,7 @@
         <v>42503</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-1456.67</v>
+        <v>-305.49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,15 +1444,15 @@
         <v>42503</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-305.49</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>42503</v>
+        <v>42506</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-44</v>
+        <v>-10.68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1460,7 @@
         <v>42506</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-10.68</v>
+        <v>-372</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1468,7 @@
         <v>42506</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-372</v>
+        <v>-8008.12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1476,7 @@
         <v>42506</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-8008.12</v>
+        <v>-64.44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1484,7 @@
         <v>42506</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-64.44</v>
+        <v>-486.24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,7 +1492,7 @@
         <v>42506</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-486.24</v>
+        <v>-218.94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1500,7 @@
         <v>42506</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-218.94</v>
+        <v>-1416.66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1508,7 @@
         <v>42506</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-1416.66</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,7 +1516,7 @@
         <v>42506</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-270</v>
+        <v>-4306.45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,15 +1524,15 @@
         <v>42506</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-4306.45</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-132</v>
+        <v>-494.9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,15 +1540,15 @@
         <v>42507</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-494.9</v>
+        <v>-656</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-656</v>
+        <v>-350.1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1556,7 @@
         <v>42508</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-350.1</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1564,7 @@
         <v>42508</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-1000</v>
+        <v>-2180</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1572,7 @@
         <v>42508</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-2180</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,15 +1580,15 @@
         <v>42508</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-1.75</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-20</v>
+        <v>-10520</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1596,7 @@
         <v>42509</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-10520</v>
+        <v>-228.67</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1604,7 @@
         <v>42509</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-228.67</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,7 +1612,7 @@
         <v>42509</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-3.5</v>
+        <v>-26.25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,15 +1620,15 @@
         <v>42509</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-26.25</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>42509</v>
+        <v>42510</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-4</v>
+        <v>-665</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,7 +1636,7 @@
         <v>42510</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-665</v>
+        <v>-748.93</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1644,7 @@
         <v>42510</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-748.93</v>
+        <v>-14198.22</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1652,7 @@
         <v>42510</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-14198.22</v>
+        <v>-366.93</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,7 +1660,7 @@
         <v>42510</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-366.93</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1668,7 @@
         <v>42510</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-30</v>
+        <v>-1150.66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,7 +1676,7 @@
         <v>42510</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-1150.66</v>
+        <v>-3799.8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1684,7 @@
         <v>42510</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-3799.8</v>
+        <v>-1305</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,7 +1692,7 @@
         <v>42510</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-1305</v>
+        <v>-5203.26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,7 +1700,7 @@
         <v>42510</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-5203.26</v>
+        <v>-3858.38</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1708,7 @@
         <v>42510</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-3858.38</v>
+        <v>-147.22</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +1716,7 @@
         <v>42510</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-147.22</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,15 +1724,15 @@
         <v>42510</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-1.75</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>42510</v>
+        <v>42513</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-5.47</v>
+        <v>-359.28</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +1740,7 @@
         <v>42513</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-359.28</v>
+        <v>-2329.4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1748,7 @@
         <v>42513</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-2329.4</v>
+        <v>-1358.99</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1756,7 @@
         <v>42513</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-1358.99</v>
+        <v>-11090.66</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,7 +1764,7 @@
         <v>42513</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-11090.66</v>
+        <v>-478</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,15 +1772,15 @@
         <v>42513</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-478</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>42513</v>
+        <v>42514</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-4</v>
+        <v>-18.39</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1788,7 @@
         <v>42514</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-18.39</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1796,7 @@
         <v>42514</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-2500</v>
+        <v>-10.94</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,15 +1804,15 @@
         <v>42514</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-10.94</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>42514</v>
+        <v>42515</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-4</v>
+        <v>-4612.39</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,15 +1820,15 @@
         <v>42515</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-4612.39</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>42515</v>
+        <v>42517</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-4</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,15 +1836,15 @@
         <v>42517</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-400</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>42517</v>
+        <v>42520</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-4</v>
+        <v>-1004.08</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1852,7 @@
         <v>42520</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-1004.08</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1860,7 @@
         <v>42520</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-250</v>
+        <v>-1282</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,7 +1868,7 @@
         <v>42520</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-1282</v>
+        <v>-250.05</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +1876,7 @@
         <v>42520</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-250.05</v>
+        <v>-6744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1884,7 @@
         <v>42520</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-6744</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1892,7 @@
         <v>42520</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-4</v>
+        <v>-11397.13</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,15 +1900,15 @@
         <v>42520</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-11397.13</v>
+        <v>-12384</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>42520</v>
+        <v>42521</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-12384</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1916,7 @@
         <v>42521</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-60</v>
+        <v>-258.93</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1924,7 @@
         <v>42521</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-258.93</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,14 +1940,6 @@
         <v>42521</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-5.47</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>42521</v>
-      </c>
-      <c r="C102" s="2" t="n">
         <v>-108</v>
       </c>
     </row>
